--- a/data/trans_bre/P21D_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P21D_2_R-Provincia-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.032798705617281</v>
+        <v>-8.049416721392447</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.6060996418311746</v>
+        <v>-0.6377503587262525</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.377897521365564</v>
+        <v>5.529352838663846</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1.46435288881403</v>
+        <v>1.189293928605529</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.898022068341036</v>
+        <v>-4.564105549492934</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8254282635074893</v>
+        <v>-0.7909917206591565</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.766693110793522</v>
+        <v>1.732573899725143</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.578417733848885</v>
+        <v>1.201490995794361</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1.588834788219198</v>
+        <v>1.588834788219197</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.9332484977997167</v>
+        <v>0.9332484977997163</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.90851731108995</v>
+        <v>-2.387697144969034</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.7475226977823205</v>
+        <v>-0.8125595074062619</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.868680074114493</v>
+        <v>4.649570540399888</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.312029431321448</v>
+        <v>2.314869710891359</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -768,10 +768,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>-1.586063408559994</v>
+        <v>-1.586063408559995</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.2704063629543215</v>
+        <v>-0.2704063629543217</v>
       </c>
     </row>
     <row r="20">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-7.237526237791418</v>
+        <v>-6.500724002641209</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7876402883558358</v>
+        <v>-0.7414782120843192</v>
       </c>
     </row>
     <row r="21">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.874879416285737</v>
+        <v>3.045958980017728</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9488853903318617</v>
+        <v>1.011360832574212</v>
       </c>
     </row>
     <row r="22">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4163023471191041</v>
+        <v>0.3821028938962366</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
     </row>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.204597798821472</v>
+        <v>3.289763143542208</v>
       </c>
       <c r="D24" s="6" t="inlineStr"/>
     </row>
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.5658428420867598</v>
+        <v>-0.5017754348495819</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6793838930211032</v>
+        <v>-0.7802808868336316</v>
       </c>
     </row>
     <row r="27">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.981728706555829</v>
+        <v>1.909714399346129</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
     </row>
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.2544285324725982</v>
+        <v>0.2544285324725979</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0.1189618948642544</v>
+        <v>0.1189618948642543</v>
       </c>
     </row>
     <row r="29">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7004348729737142</v>
+        <v>-0.9139104088364782</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>-0.2643209334093309</v>
+        <v>-0.3292097417572833</v>
       </c>
     </row>
     <row r="30">
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.311733990808221</v>
+        <v>1.193894748848389</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>0.7812669614159334</v>
+        <v>0.6816269865366101</v>
       </c>
     </row>
     <row r="31">
